--- a/Results/Sodx_Unstructured/Case Guide.xlsx
+++ b/Results/Sodx_Unstructured/Case Guide.xlsx
@@ -193,7 +193,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,10 +234,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -247,10 +243,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -333,6 +325,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.086109895605426"/>
+          <c:y val="0.0347893742358564"/>
+          <c:w val="0.688066512471088"/>
+          <c:h val="0.865844170278982"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -387,34 +390,43 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$7</c:f>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6.103515625E-005</c:v>
+                  <c:v>0.015625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.90625E-005</c:v>
+                  <c:v>0.0125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.71267361111111E-005</c:v>
+                  <c:v>0.0104166666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000108506944444444</c:v>
+                  <c:v>0.0208333333333333</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000244140625</c:v>
+                  <c:v>0.03125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0078125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00390625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.001953125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$7</c:f>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>128</c:v>
                 </c:pt>
@@ -429,17 +441,26 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="20015956"/>
-        <c:axId val="33753003"/>
+        <c:axId val="42008010"/>
+        <c:axId val="11877594"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="20015956"/>
+        <c:axId val="42008010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,12 +488,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33753003"/>
+        <c:crossAx val="11877594"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="33753003"/>
+        <c:axId val="11877594"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,7 +530,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20015956"/>
+        <c:crossAx val="42008010"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -562,15 +583,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:colOff>504720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>247320</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:colOff>574200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -578,8 +599,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="990360" y="1309680"/>
-        <a:ext cx="5759280" cy="3239280"/>
+        <a:off x="1317600" y="1677960"/>
+        <a:ext cx="5758920" cy="3238920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -597,10 +618,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -640,8 +661,8 @@
         <v>16384</v>
       </c>
       <c r="F3" s="6" t="n">
-        <f aca="false">1/E3</f>
-        <v>6.103515625E-005</v>
+        <f aca="false">2/C3</f>
+        <v>0.015625</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -660,9 +681,9 @@
         <f aca="false">D4*C4</f>
         <v>25600</v>
       </c>
-      <c r="F4" s="10" t="n">
-        <f aca="false">1/E4</f>
-        <v>3.90625E-005</v>
+      <c r="F4" s="6" t="n">
+        <f aca="false">2/C4</f>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -681,9 +702,9 @@
         <f aca="false">D5*C5</f>
         <v>36864</v>
       </c>
-      <c r="F5" s="10" t="n">
-        <f aca="false">1/E5</f>
-        <v>2.71267361111111E-005</v>
+      <c r="F5" s="6" t="n">
+        <f aca="false">2/C5</f>
+        <v>0.0104166666666667</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -702,30 +723,93 @@
         <f aca="false">D6*C6</f>
         <v>9216</v>
       </c>
-      <c r="F6" s="10" t="n">
-        <f aca="false">1/E6</f>
-        <v>0.000108506944444444</v>
+      <c r="F6" s="6" t="n">
+        <f aca="false">2/C6</f>
+        <v>0.0208333333333333</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="11" t="n">
         <f aca="false">0.5*C3</f>
         <v>64</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="11" t="n">
         <f aca="false">0.5*D3</f>
         <v>64</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="12" t="n">
         <f aca="false">D7*C7</f>
         <v>4096</v>
       </c>
-      <c r="F7" s="14" t="n">
-        <f aca="false">1/E7</f>
-        <v>0.000244140625</v>
+      <c r="F7" s="6" t="n">
+        <f aca="false">2/C7</f>
+        <v>0.03125</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <f aca="false">C3*2</f>
+        <v>256</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">D3*2</f>
+        <v>256</v>
+      </c>
+      <c r="E8" s="12" t="n">
+        <f aca="false">D8*C8</f>
+        <v>65536</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <f aca="false">2/C8</f>
+        <v>0.0078125</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <f aca="false">C3*4</f>
+        <v>512</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <f aca="false">D3*4</f>
+        <v>512</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <f aca="false">D9*C9</f>
+        <v>262144</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <f aca="false">2/C9</f>
+        <v>0.00390625</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <f aca="false">C9*2</f>
+        <v>1024</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">D9*2</f>
+        <v>1024</v>
+      </c>
+      <c r="E10" s="12" t="n">
+        <f aca="false">D10*C10</f>
+        <v>1048576</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <f aca="false">2/C10</f>
+        <v>0.001953125</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sodx_Unstructured/Case Guide.xlsx
+++ b/Results/Sodx_Unstructured/Case Guide.xlsx
@@ -330,10 +330,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.086109895605426"/>
+          <c:x val="0.0860786397449522"/>
           <c:y val="0.0347893742358564"/>
-          <c:w val="0.688066512471088"/>
-          <c:h val="0.865844170278982"/>
+          <c:w val="0.688004000750141"/>
+          <c:h val="0.865733022118484"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -416,7 +416,7 @@
                   <c:v>0.00390625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.001953125</c:v>
+                  <c:v>0.0625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,18 +449,18 @@
                   <c:v>512</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1024</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="42008010"/>
-        <c:axId val="11877594"/>
+        <c:axId val="62106433"/>
+        <c:axId val="35940555"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="42008010"/>
+        <c:axId val="62106433"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -488,12 +488,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="11877594"/>
+        <c:crossAx val="35940555"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="11877594"/>
+        <c:axId val="35940555"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +530,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42008010"/>
+        <c:crossAx val="62106433"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -589,9 +589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>574200</xdr:colOff>
+      <xdr:colOff>573840</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -600,7 +600,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1317600" y="1677960"/>
-        <a:ext cx="5758920" cy="3238920"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -618,15 +618,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:M10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -748,6 +750,7 @@
         <f aca="false">2/C7</f>
         <v>0.03125</v>
       </c>
+      <c r="M7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="n">
@@ -769,6 +772,7 @@
         <f aca="false">2/C8</f>
         <v>0.0078125</v>
       </c>
+      <c r="M8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="n">
@@ -796,20 +800,19 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="n">
-        <f aca="false">C9*2</f>
-        <v>1024</v>
+        <f aca="false">C7/2</f>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="n">
-        <f aca="false">D9*2</f>
-        <v>1024</v>
+        <v>32</v>
       </c>
       <c r="E10" s="12" t="n">
         <f aca="false">D10*C10</f>
-        <v>1048576</v>
+        <v>1024</v>
       </c>
       <c r="F10" s="6" t="n">
         <f aca="false">2/C10</f>
-        <v>0.001953125</v>
+        <v>0.0625</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Sodx_Unstructured/Case Guide.xlsx
+++ b/Results/Sodx_Unstructured/Case Guide.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MS_Thesis\Results\Sodx_Unstructured\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F47C85-B45C-48C0-A887-948B5D44864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10450" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -22,31 +38,26 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">Cases</t>
+    <t>Cases</t>
   </si>
   <si>
-    <t xml:space="preserve">nx</t>
+    <t>nx</t>
   </si>
   <si>
-    <t xml:space="preserve">ny</t>
+    <t>ny</t>
   </si>
   <si>
-    <t xml:space="preserve">node number</t>
+    <t>node number</t>
   </si>
   <si>
-    <t xml:space="preserve">h</t>
+    <t>h</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-    <numFmt numFmtId="166" formatCode="0.00E+00"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -54,31 +65,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,171 +81,211 @@
     </fill>
   </fills>
   <borders count="11">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -313,15 +344,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -330,10 +379,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0860786397449522"/>
-          <c:y val="0.0347893742358564"/>
-          <c:w val="0.688004000750141"/>
-          <c:h val="0.865733022118484"/>
+          <c:x val="8.6078639744952196E-2"/>
+          <c:y val="3.4789374235856402E-2"/>
+          <c:w val="0.68800400075014101"/>
+          <c:h val="0.86573302211848402"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -343,9 +392,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -363,15 +409,23 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="none"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -380,8 +434,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -392,31 +447,31 @@
             <c:numRef>
               <c:f>Sheet1!$F$3:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.015625</c:v>
+                  <c:v>1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0125</c:v>
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0104166666666667</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0208333333333333</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03125</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0078125</c:v>
+                  <c:v>7.8125E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00390625</c:v>
+                  <c:v>3.90625E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0625</c:v>
+                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -455,7 +510,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3FD-4DDB-88A8-CD6F7AACCF50}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="62106433"/>
         <c:axId val="35940555"/>
       </c:scatterChart>
@@ -473,7 +541,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -482,10 +550,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="35940555"/>
@@ -503,7 +572,7 @@
           <c:spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -515,7 +584,7 @@
         <c:spPr>
           <a:ln w="0">
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
@@ -524,10 +593,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="62106433"/>
@@ -538,7 +608,7 @@
         <a:noFill/>
         <a:ln w="0">
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -557,29 +627,36 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+            <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
               <a:latin typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="0">
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -593,14 +670,20 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1317600" y="1677960"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -613,25 +696,317 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:M10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AMJ10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="14" style="1" width="11.52"/>
+    <col min="1" max="12" width="11.54296875" style="1"/>
+    <col min="13" max="13" width="13.26953125" style="1" customWidth="1"/>
+    <col min="14" max="1024" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,178 +1023,177 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="n">
+    <row r="3" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>128</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="4">
         <v>128</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <f aca="false">D3*C3</f>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E10" si="0">D3*C3</f>
         <v>16384</v>
       </c>
-      <c r="F3" s="6" t="n">
-        <f aca="false">2/C3</f>
-        <v>0.015625</v>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F10" si="1">2/C3</f>
+        <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="7" t="n">
+    <row r="4" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="n">
-        <f aca="false">C3*1.25</f>
+      <c r="C4" s="8">
+        <f>C3*1.25</f>
         <v>160</v>
       </c>
-      <c r="D4" s="8" t="n">
-        <f aca="false">D3*1.25</f>
+      <c r="D4" s="8">
+        <f>D3*1.25</f>
         <v>160</v>
       </c>
-      <c r="E4" s="9" t="n">
-        <f aca="false">D4*C4</f>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
         <v>25600</v>
       </c>
-      <c r="F4" s="6" t="n">
-        <f aca="false">2/C4</f>
-        <v>0.0125</v>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="n">
+    <row r="5" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="n">
-        <f aca="false">C3*1.5</f>
+      <c r="C5" s="8">
+        <f>C3*1.5</f>
         <v>192</v>
       </c>
-      <c r="D5" s="8" t="n">
-        <f aca="false">D3*1.5</f>
+      <c r="D5" s="8">
+        <f>D3*1.5</f>
         <v>192</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <f aca="false">D5*C5</f>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
         <v>36864</v>
       </c>
-      <c r="F5" s="6" t="n">
-        <f aca="false">2/C5</f>
-        <v>0.0104166666666667</v>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="7" t="n">
+    <row r="6" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <f aca="false">C3*0.75</f>
+      <c r="C6" s="8">
+        <f>C3*0.75</f>
         <v>96</v>
       </c>
-      <c r="D6" s="8" t="n">
-        <f aca="false">D3*0.75</f>
+      <c r="D6" s="8">
+        <f>D3*0.75</f>
         <v>96</v>
       </c>
-      <c r="E6" s="9" t="n">
-        <f aca="false">D6*C6</f>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
         <v>9216</v>
       </c>
-      <c r="F6" s="6" t="n">
-        <f aca="false">2/C6</f>
-        <v>0.0208333333333333</v>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="10" t="n">
+    <row r="7" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
         <v>5</v>
       </c>
-      <c r="C7" s="11" t="n">
-        <f aca="false">0.5*C3</f>
+      <c r="C7" s="11">
+        <f>0.5*C3</f>
         <v>64</v>
       </c>
-      <c r="D7" s="11" t="n">
-        <f aca="false">0.5*D3</f>
+      <c r="D7" s="11">
+        <f>0.5*D3</f>
         <v>64</v>
       </c>
-      <c r="E7" s="12" t="n">
-        <f aca="false">D7*C7</f>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-      <c r="F7" s="6" t="n">
-        <f aca="false">2/C7</f>
-        <v>0.03125</v>
-      </c>
-      <c r="M7" s="0"/>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="M7"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="n">
+    <row r="8" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <f aca="false">C3*2</f>
+      <c r="C8" s="1">
+        <f>C3*2</f>
         <v>256</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <f aca="false">D3*2</f>
+      <c r="D8" s="1">
+        <f>D3*2</f>
         <v>256</v>
       </c>
-      <c r="E8" s="12" t="n">
-        <f aca="false">D8*C8</f>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
         <v>65536</v>
       </c>
-      <c r="F8" s="6" t="n">
-        <f aca="false">2/C8</f>
-        <v>0.0078125</v>
-      </c>
-      <c r="M8" s="0"/>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="M8"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="n">
+    <row r="9" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <f aca="false">C3*4</f>
+      <c r="C9" s="1">
+        <f>C3*4</f>
         <v>512</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <f aca="false">D3*4</f>
+      <c r="D9" s="1">
+        <f>D3*4</f>
         <v>512</v>
       </c>
-      <c r="E9" s="12" t="n">
-        <f aca="false">D9*C9</f>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
         <v>262144</v>
       </c>
-      <c r="F9" s="6" t="n">
-        <f aca="false">2/C9</f>
-        <v>0.00390625</v>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>3.90625E-3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="n">
+    <row r="10" spans="2:13" ht="13" x14ac:dyDescent="0.3">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <f aca="false">C7/2</f>
+      <c r="C10" s="1">
+        <f>C7/2</f>
         <v>32</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>32</v>
       </c>
-      <c r="E10" s="12" t="n">
-        <f aca="false">D10*C10</f>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="F10" s="6" t="n">
-        <f aca="false">2/C10</f>
-        <v>0.0625</v>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
